--- a/Atelier_2/donnees/party.xlsx
+++ b/Atelier_2/donnees/party.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bera1923\Desktop\Ateliers_ALEA\Atelier_2\donnees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{993A0F67-3F58-43A0-9295-212888C7805D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287CB077-2A50-48D4-B3E1-ADB2490565FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1DE96498-1F57-457B-8325-88C22973E418}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Coke</t>
   </si>
   <si>
-    <t>7up</t>
-  </si>
-  <si>
     <t>Barbecue</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Crush</t>
+  </si>
+  <si>
+    <t>Sevenup</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,21 +455,21 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>41</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>4</v>
